--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H2">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I2">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J2">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>742.699047469935</v>
+        <v>913.1170917480423</v>
       </c>
       <c r="R2">
-        <v>6684.291427229416</v>
+        <v>8218.053825732381</v>
       </c>
       <c r="S2">
-        <v>0.265126762398009</v>
+        <v>0.3232362022229552</v>
       </c>
       <c r="T2">
-        <v>0.265126762398009</v>
+        <v>0.3232362022229553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H3">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I3">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J3">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>44.67765723790055</v>
+        <v>54.25435438762889</v>
       </c>
       <c r="R3">
-        <v>402.098915141105</v>
+        <v>488.28918948866</v>
       </c>
       <c r="S3">
-        <v>0.01594891316390445</v>
+        <v>0.0192056107861734</v>
       </c>
       <c r="T3">
-        <v>0.01594891316390445</v>
+        <v>0.01920561078617341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H4">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I4">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J4">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>11.48479566662711</v>
+        <v>16.63613702832667</v>
       </c>
       <c r="R4">
-        <v>103.363160999644</v>
+        <v>149.72523325494</v>
       </c>
       <c r="S4">
-        <v>0.004099812302531315</v>
+        <v>0.005889060451603929</v>
       </c>
       <c r="T4">
-        <v>0.004099812302531316</v>
+        <v>0.00588906045160393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H5">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I5">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J5">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>29.05948148884588</v>
+        <v>12.963656983984</v>
       </c>
       <c r="R5">
-        <v>261.535333399613</v>
+        <v>116.672912855856</v>
       </c>
       <c r="S5">
-        <v>0.01037357765618309</v>
+        <v>0.004589031667781244</v>
       </c>
       <c r="T5">
-        <v>0.01037357765618309</v>
+        <v>0.004589031667781246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>676.6063202873332</v>
+        <v>685.0234637954167</v>
       </c>
       <c r="R6">
-        <v>6089.456882586</v>
+        <v>6165.21117415875</v>
       </c>
       <c r="S6">
-        <v>0.2415331536063033</v>
+        <v>0.2424928685180525</v>
       </c>
       <c r="T6">
-        <v>0.2415331536063033</v>
+        <v>0.2424928685180526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
         <v>40.70179619291666</v>
@@ -883,10 +883,10 @@
         <v>366.31616573625</v>
       </c>
       <c r="S7">
-        <v>0.01452962069248976</v>
+        <v>0.01440811276444856</v>
       </c>
       <c r="T7">
-        <v>0.01452962069248976</v>
+        <v>0.01440811276444857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>10.46276464433333</v>
+        <v>12.48048504875</v>
       </c>
       <c r="R8">
-        <v>94.16488179899999</v>
+        <v>112.32436543875</v>
       </c>
       <c r="S8">
-        <v>0.003734970342744036</v>
+        <v>0.004417992638091448</v>
       </c>
       <c r="T8">
-        <v>0.003734970342744036</v>
+        <v>0.004417992638091449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>26.47348061991666</v>
+        <v>9.725378366999999</v>
       </c>
       <c r="R9">
-        <v>238.26132557925</v>
+        <v>87.528405303</v>
       </c>
       <c r="S9">
-        <v>0.009450433833293784</v>
+        <v>0.003442706742584753</v>
       </c>
       <c r="T9">
-        <v>0.009450433833293784</v>
+        <v>0.003442706742584754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H10">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>1003.002142671691</v>
+        <v>892.7153561593791</v>
       </c>
       <c r="R10">
-        <v>9027.019284045224</v>
+        <v>8034.438205434411</v>
       </c>
       <c r="S10">
-        <v>0.3580490801364279</v>
+        <v>0.3160141497720347</v>
       </c>
       <c r="T10">
-        <v>0.3580490801364279</v>
+        <v>0.3160141497720347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H11">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>60.33639883048277</v>
+        <v>53.04215169998556</v>
       </c>
       <c r="R11">
-        <v>543.0275894743449</v>
+        <v>477.37936529987</v>
       </c>
       <c r="S11">
-        <v>0.0215387297602916</v>
+        <v>0.01877650065712283</v>
       </c>
       <c r="T11">
-        <v>0.0215387297602916</v>
+        <v>0.01877650065712283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H12">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>15.51001674367955</v>
+        <v>16.26443654003667</v>
       </c>
       <c r="R12">
-        <v>139.590150693116</v>
+        <v>146.37992886033</v>
       </c>
       <c r="S12">
-        <v>0.005536725189023663</v>
+        <v>0.005757481429280219</v>
       </c>
       <c r="T12">
-        <v>0.005536725189023662</v>
+        <v>0.005757481429280219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H13">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>39.24432419501744</v>
+        <v>12.674010558088</v>
       </c>
       <c r="R13">
-        <v>353.198917755157</v>
+        <v>114.066095022792</v>
       </c>
       <c r="S13">
-        <v>0.01400933615273556</v>
+        <v>0.004486499132205939</v>
       </c>
       <c r="T13">
-        <v>0.01400933615273556</v>
+        <v>0.004486499132205939</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H14">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I14">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J14">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N14">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O14">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P14">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q14">
-        <v>90.63918477247822</v>
+        <v>96.46511632343834</v>
       </c>
       <c r="R14">
-        <v>815.752662952304</v>
+        <v>868.186046910945</v>
       </c>
       <c r="S14">
-        <v>0.03235613898655883</v>
+        <v>0.0341478854455477</v>
       </c>
       <c r="T14">
-        <v>0.03235613898655882</v>
+        <v>0.03414788544554771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H15">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I15">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J15">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P15">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q15">
-        <v>5.452472900541111</v>
+        <v>5.731633603568334</v>
       </c>
       <c r="R15">
-        <v>49.07225610486999</v>
+        <v>51.58470243211499</v>
       </c>
       <c r="S15">
-        <v>0.001946409507468588</v>
+        <v>0.002028952798380111</v>
       </c>
       <c r="T15">
-        <v>0.001946409507468588</v>
+        <v>0.002028952798380112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H16">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I16">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J16">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N16">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q16">
-        <v>1.401607447926222</v>
+        <v>1.757503947865</v>
       </c>
       <c r="R16">
-        <v>12.614467031336</v>
+        <v>15.817535530785</v>
       </c>
       <c r="S16">
-        <v>0.0005003421588966802</v>
+        <v>0.000622142446608027</v>
       </c>
       <c r="T16">
-        <v>0.0005003421588966801</v>
+        <v>0.0006221424466080272</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H17">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I17">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J17">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N17">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O17">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P17">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q17">
-        <v>3.546426673135778</v>
+        <v>1.369529373876</v>
       </c>
       <c r="R17">
-        <v>31.917840058222</v>
+        <v>12.325764364884</v>
       </c>
       <c r="S17">
-        <v>0.001265994113138395</v>
+        <v>0.0004848025271293571</v>
       </c>
       <c r="T17">
-        <v>0.001265994113138395</v>
+        <v>0.0004848025271293573</v>
       </c>
     </row>
   </sheetData>
